--- a/DemoAPI-master/database/DemoAPITestCase_bak.xlsx
+++ b/DemoAPI-master/database/DemoAPITestCase_bak.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/test/DemoAPI-master/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/ada1/DemoAPI-master/report/excelReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A492B-92FE-ED4A-A275-8C9E2731C233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F3E990-CE39-A347-86CA-7BAC9FD01D89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36620" yWindow="-5900" windowWidth="28200" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-39540" yWindow="-5260" windowWidth="33480" windowHeight="19280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>event_query_001</t>
   </si>
@@ -128,23 +128,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Content-Type": "application/x-www-form-urlencoded"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v2 校验用户名是否存在-79247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v2/user/existUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"key": "", "value": ""}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"Content-Type": "application/json"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"userName": "wunatest1"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"userName": "wunatest1"}</t>
+    <t>v2 校验手机号是否存在-79253</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v2/user/existMobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,22 +172,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v2 校验邮箱是否存在-79259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v2/user/existMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   "email":"12345@qq.com"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v2 用户id查询用户信息-80795</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v2/user/getById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   "userId": "78914a53-f3dc-4c93-8f02-86c5a6440363"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v2 用户账号查询用户信息-80801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v3/user/getUserListByRealName</t>
+  </si>
+  <si>
     <t>{
   "userName": "wuna1"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2 用户账号查询用户信息-批量-79289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v2/user/getUserListByRealName</t>
   </si>
   <si>
     <t>{
@@ -177,6 +229,14 @@
    "userStatus":2
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2 用户账号查询用户手机号-批量-84779</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v1/user/getUserListByRealName</t>
   </si>
   <si>
     <t>{
@@ -190,7 +250,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v2 手机号查询用户信息-79265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v0/user/getUserListByRealName</t>
+  </si>
+  <si>
     <t>{"mobile": "13100000011"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2 用户账号模糊查询用户信息-79271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v2/user/getUserListByUsername</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -201,10 +278,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v2 真实姓名模糊查询用户信息-79277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v2/user/getUserListByRealName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   "realName": "侯俊",
    "userStatus":1
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2 账号/真实姓名模糊查询用户-79283</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,6 +306,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v2 员工工号查询用户-批量-79295</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v4/user/getUserListByRealName</t>
+  </si>
+  <si>
     <t>{
   "employIds":[ "0000011114","500039749","100000955"],    
   "userStatus": "1"
@@ -223,10 +321,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>v2 组织id集合查询全部用户-79307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v5/user/getUserListByRealName</t>
+  </si>
+  <si>
     <t>{
   "ids":[ "38da4339-308a-47c0-94cf-cf44664a917d"]
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2 组织code集合查询全部用户-79313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v6/user/getUserListByRealName</t>
   </si>
   <si>
     <t>{
@@ -234,6 +348,14 @@
   "bizCode":"xz"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2 角色code查询用户-79319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+http://api.longfor.uat/iam-openapi-uat/public/v7/user/getUserListByRealName</t>
   </si>
   <si>
     <t>{
@@ -244,130 +366,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"key": "", "value": ""}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 校验用户名是否存在-79247</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 校验手机号是否存在-79253</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 校验邮箱是否存在-79259</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 用户id查询用户信息-80795</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 用户账号查询用户信息-80801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 用户账号查询用户信息-批量-79289</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 用户账号查询用户手机号-批量-84779</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 手机号查询用户信息-79265</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 用户账号模糊查询用户信息-79271</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 真实姓名模糊查询用户信息-79277</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 账号/真实姓名模糊查询用户-79283</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 员工工号查询用户-批量-79295</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 组织id集合查询全部用户-79307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 组织code集合查询全部用户-79313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2 角色code查询用户-79319</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v2/user/existUserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v2/user/existMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v2/user/existMail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v2/user/getById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v2/user/getUserListByRealName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v2/user/getUserListByRealName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v2/user/getUserListByUsername</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v3/user/getUserListByRealName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v1/user/getUserListByRealName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v0/user/getUserListByRealName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v4/user/getUserListByRealName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v5/user/getUserListByRealName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v6/user/getUserListByRealName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-http://api.longfor.uat/iam-openapi-uat/public/v7/user/getUserListByRealName</t>
+    <t>{"Content-Type": "application/json","X-Gaia-Api-Key":"b5011888-962b-443c-982b-f800f25b8141"}</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json","X-Gaia-Api-Key":"b5011888-962b-443c-982b-f800f25b8141"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,9 +484,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -503,6 +503,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,24 +848,24 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="28" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="9" customWidth="1"/>
     <col min="11" max="11" width="24.1640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" customHeight="1">
@@ -888,7 +891,7 @@
         <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>23</v>
@@ -907,559 +910,541 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>49</v>
+      <c r="A2" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>64</v>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="H2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="10">
         <v>200</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>50</v>
+      <c r="A3" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>65</v>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="11">
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="10">
         <v>200</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>51</v>
+      <c r="A4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>66</v>
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>200</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>52</v>
+      <c r="A5" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>67</v>
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="11">
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="10">
         <v>200</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>53</v>
+      <c r="A6" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>71</v>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="10">
+        <v>200</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="43.5" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="11">
-        <v>200</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="43.5" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>68</v>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="11">
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="10">
         <v>200</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="55.5" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>55</v>
+      <c r="A8" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>72</v>
+      <c r="C8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="F8" s="11"/>
+      <c r="G8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="10">
         <v>200</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="57" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>56</v>
+      <c r="A9" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>73</v>
+      <c r="C9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="F9" s="11"/>
+      <c r="G9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="10">
         <v>200</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>70</v>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="F10" s="11"/>
+      <c r="G10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="10">
         <v>200</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="51.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>58</v>
+      <c r="A11" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>69</v>
+      <c r="C11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="F11" s="11"/>
+      <c r="G11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="10">
         <v>200</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>59</v>
+      <c r="A12" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>71</v>
+      <c r="C12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="F12" s="11"/>
+      <c r="G12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="10">
         <v>200</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>60</v>
+      <c r="A13" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>74</v>
+      <c r="C13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="F13" s="11"/>
+      <c r="G13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="10">
         <v>200</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>61</v>
+      <c r="A14" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>75</v>
+      <c r="C14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="F14" s="11"/>
+      <c r="G14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="10">
         <v>200</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>62</v>
+      <c r="A15" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>76</v>
+      <c r="C15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="F15" s="11"/>
+      <c r="G15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="10">
         <v>200</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>63</v>
+      <c r="A16" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>77</v>
+      <c r="C16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="F16" s="11"/>
+      <c r="G16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="10">
         <v>200</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
@@ -1550,7 +1535,7 @@
   <autoFilter ref="A1:M15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/" xr:uid="{E78DD2B3-DC7D-514B-84A0-55D59081B06A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
